--- a/SampleApp/模版/03读取excel内容/Sample02.xlsx
+++ b/SampleApp/模版/03读取excel内容/Sample02.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4980" windowWidth="16470" windowHeight="1515" activeTab="1"/>
+    <workbookView xWindow="4290" yWindow="4980" windowWidth="16470" windowHeight="1515"/>
   </bookViews>
   <sheets>
-    <sheet name="合并行读取-正确的" sheetId="2" r:id="rId1"/>
-    <sheet name="合并行读取-错误的" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该行D列没有值,应该报错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jack是该行的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事业7部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +89,10 @@
   </si>
   <si>
     <t>王五2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,58 +280,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,7 +409,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -713,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -733,10 +710,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -745,116 +722,113 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -878,175 +852,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>